--- a/Foundation of Artificial Intelligence/Project 3 ICA/Advance Version of obstacle project/DataBase Result.xlsx
+++ b/Foundation of Artificial Intelligence/Project 3 ICA/Advance Version of obstacle project/DataBase Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters Projects\Master-In-AI\Foundation of Artificial Intelligence\Project 3 ICA\Advance Version of obstacle project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CD254B-F58D-42AA-B8B6-9E6679F334AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B080AA9A-8343-4486-A7B5-9AC758134F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6759329-20EA-46D7-A129-3E912A659E10}"/>
   </bookViews>
@@ -357,6 +357,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,34 +393,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,7 +739,7 @@
   <dimension ref="H7:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,38 +752,38 @@
   <sheetData>
     <row r="7" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="8:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="8:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="11">
         <v>0</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -792,10 +792,10 @@
       <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>149</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -807,33 +807,33 @@
       <c r="J12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H13" s="17"/>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>50</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -842,10 +842,10 @@
       <c r="I15" s="1">
         <v>10</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -857,33 +857,33 @@
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H17" s="17"/>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>50</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -895,7 +895,7 @@
       <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -907,33 +907,33 @@
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H21" s="17"/>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>50</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="11">
         <v>0</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -945,7 +945,7 @@
       <c r="J23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -957,19 +957,19 @@
       <c r="J24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H25" s="17"/>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>50</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="10" t="s">
         <v>31</v>
       </c>
     </row>
